--- a/biology/Zoologie/Aeshna_crenata/Aeshna_crenata.xlsx
+++ b/biology/Zoologie/Aeshna_crenata/Aeshna_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeshna crenata est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1]. Son nom vernaculaire est l'æschne crénelée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeshna crenata est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates. Son nom vernaculaire est l'æschne crénelée.
 Synonymes
 Aeshna gigas (Bartenev, 1908)
 Aeshna nigroflava Martin, 1908
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette libellule de grande taille (corps long de 71 à 86 mm)[2] dépasse l'Anax empereur, une des plus grandes libellules d'Europe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette libellule de grande taille (corps long de 71 à 86 mm) dépasse l'Anax empereur, une des plus grandes libellules d'Europe.
 Chez Aeschna crenata, les bandes thoraciques sont généralement d'un dégradé jaune vert et il y a présence d'une très petite tache entre celles-ci. Le mâle et la femelle sont relativement similaires. La coloration peut varier chez les individus allant de bleu-vert à jaune.
 			Femelle
 			Mâle
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se retrouve en Sibérie, dans le Nord de la Russie, en Finlande, en Lettonie, en Lituanie et en Biélorussie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se retrouve en Sibérie, dans le Nord de la Russie, en Finlande, en Lettonie, en Lituanie et en Biélorussie.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A. Crenata fréquente les lacs oligotrophes forestiers. La femelle pond dans les végétaux aquatiques.
 </t>
